--- a/GestorReceitas/outubro/relatorioMensal_backup_outubro_20241104_224104.xlsx
+++ b/GestorReceitas/outubro/relatorioMensal_backup_outubro_20241104_224104.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pessoal\AssociacaodePais\School\GestorReceitas\outubro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED36DFE-F477-4839-9705-0B703FA78C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97ADB38-309F-4168-ABCE-EE137380201B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="relatorioMensal" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">relatorioMensal!$A$1:$P$145</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">relatorioMensal!$A$1:$Q$145</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="452">
   <si>
     <t>Nome</t>
   </si>
@@ -1208,9 +1208,6 @@
     <t>Rodrigo Miguel Martins Costa Carvalho</t>
   </si>
   <si>
-    <t>295015160</t>
-  </si>
-  <si>
     <t>sofiacolegiodatrofa@gmail.com</t>
   </si>
   <si>
@@ -1365,6 +1362,36 @@
   </si>
   <si>
     <t>Quota</t>
+  </si>
+  <si>
+    <t>Lanche de Setembro + outubro</t>
+  </si>
+  <si>
+    <t>Lanche até final do ano</t>
+  </si>
+  <si>
+    <t>lanche novembro</t>
+  </si>
+  <si>
+    <t>10€ a mais de CAF</t>
+  </si>
+  <si>
+    <t>Lanche CAF Novembro</t>
+  </si>
+  <si>
+    <t>houve erro CAF mês set. acerto com o CAF Out</t>
+  </si>
+  <si>
+    <t>lanche danca novembro</t>
+  </si>
+  <si>
+    <t>7,5€ lanche 1/2 mês outubro</t>
+  </si>
+  <si>
+    <t>Consome menos CAF - falar quota</t>
+  </si>
+  <si>
+    <t>Retificado valor do CAF (consumia mais)</t>
   </si>
 </sst>
 </file>
@@ -1393,7 +1420,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1409,6 +1436,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1440,7 +1485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1450,726 +1495,16 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="288">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="145">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3193,22 +2528,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P145"/>
+  <dimension ref="A1:Q145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="15" width="12.28515625" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="2.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="6" width="3.28515625" customWidth="1"/>
+    <col min="7" max="15" width="12.28515625" customWidth="1"/>
+    <col min="16" max="16" width="29.85546875" customWidth="1"/>
+    <col min="17" max="17" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3237,7 +2576,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -3254,311 +2593,312 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>38</v>
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G2" s="2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3">
+        <f>L2 + K2   +  M2 - (G2 + H2 + I2 +J2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <f>L3 + K3   +  M3 - (G3 + H3 + I3 +J3)</f>
+        <v>-10</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>15</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
+        <f>L4 + K4   +  M4 - (G4 + H4 + I4 +J4)</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>30</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>45</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <f>L5 + K5   +  M5 - (G5 + H5 + I5 +J5)</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>4</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="2">
+        <v>25</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <f>70-9.5</f>
+        <v>60.5</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <f>L6 + K6   +  M6 - (G6 + H6 + I6 +J6)</f>
+        <v>16.5</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>30</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
         <f>20-4</f>
         <v>16</v>
       </c>
-      <c r="M2" s="3">
-        <v>0</v>
-      </c>
-      <c r="N2" s="3">
-        <f>L2 + K2   +  M2 - (G2 + H2 + I2 +J2)</f>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <f>L7 + K7   +  M7 - (G7 + H7 + I7 +J7)</f>
         <v>-14</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3" s="2">
-        <v>10</v>
-      </c>
-      <c r="H3" s="2">
-        <v>4</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2">
-        <v>29</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="3">
-        <f t="shared" ref="N3:N66" si="0">L3 + K3   +  M3 - (G3 + H3 + I3 +J3)</f>
-        <v>0</v>
-      </c>
-      <c r="P3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4" s="2">
-        <v>10</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3">
-        <f t="shared" si="0"/>
-        <v>-10</v>
-      </c>
-      <c r="P4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>15</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>30</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>45</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>4</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="2">
-        <v>25</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2">
-        <f>70-9.5</f>
-        <v>60.5</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3">
-        <f t="shared" si="0"/>
-        <v>16.5</v>
-      </c>
-      <c r="P7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E8">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>18</v>
+      <c r="I8" s="2">
+        <v>0</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2">
@@ -3568,40 +2908,40 @@
         <v>0</v>
       </c>
       <c r="M8" s="3">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="N8" s="3">
-        <f t="shared" si="0"/>
-        <v>-45.5</v>
-      </c>
-      <c r="P8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f>L8 + K8   +  M8 - (G8 + H8 + I8 +J8)</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
       </c>
-      <c r="I9" s="2">
-        <v>0</v>
+      <c r="I9" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2">
@@ -3611,17 +2951,17 @@
         <v>0</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="N9" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f>L9 + K9   +  M9 - (G9 + H9 + I9 +J9)</f>
+        <v>-45.5</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
@@ -3660,14 +3000,14 @@
         <v>0</v>
       </c>
       <c r="N10" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P10" t="s">
+        <f>L10 + K10   +  M10 - (G10 + H10 + I10 +J10)</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>49</v>
       </c>
@@ -3706,14 +3046,14 @@
         <v>0</v>
       </c>
       <c r="N11" s="3">
-        <f t="shared" si="0"/>
+        <f>L11 + K11   +  M11 - (G11 + H11 + I11 +J11)</f>
         <v>-15</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>53</v>
       </c>
@@ -3749,14 +3089,14 @@
         <v>0</v>
       </c>
       <c r="N12" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P12" t="s">
+        <f>L12 + K12   +  M12 - (G12 + H12 + I12 +J12)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>56</v>
       </c>
@@ -3798,14 +3138,14 @@
         <v>0</v>
       </c>
       <c r="N13" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P13" t="s">
+        <f>L13 + K13   +  M13 - (G13 + H13 + I13 +J13)</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>59</v>
       </c>
@@ -3845,14 +3185,14 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
-        <f t="shared" si="0"/>
+        <f>L14 + K14   +  M14 - (G14 + H14 + I14 +J14)</f>
         <v>-16</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>61</v>
       </c>
@@ -3893,14 +3233,14 @@
         <v>0</v>
       </c>
       <c r="N15" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P15" t="s">
+        <f>L15 + K15   +  M15 - (G15 + H15 + I15 +J15)</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>64</v>
       </c>
@@ -3939,14 +3279,14 @@
         <v>0</v>
       </c>
       <c r="N16" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P16" t="s">
+        <f>L16 + K16   +  M16 - (G16 + H16 + I16 +J16)</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>67</v>
       </c>
@@ -3985,11 +3325,11 @@
         <v>0</v>
       </c>
       <c r="N17" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f>L17 + K17   +  M17 - (G17 + H17 + I17 +J17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>69</v>
       </c>
@@ -4025,14 +3365,14 @@
         <v>0</v>
       </c>
       <c r="N18" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P18" t="s">
+        <f>L18 + K18   +  M18 - (G18 + H18 + I18 +J18)</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>72</v>
       </c>
@@ -4071,14 +3411,14 @@
         <v>0</v>
       </c>
       <c r="N19" s="3">
-        <f t="shared" si="0"/>
+        <f>L19 + K19   +  M19 - (G19 + H19 + I19 +J19)</f>
         <v>-4</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>75</v>
       </c>
@@ -4114,14 +3454,14 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P20" t="s">
+        <f>L20 + K20   +  M20 - (G20 + H20 + I20 +J20)</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>78</v>
       </c>
@@ -4144,7 +3484,7 @@
         <v>50</v>
       </c>
       <c r="H21" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>18</v>
@@ -4160,14 +3500,14 @@
         <v>65</v>
       </c>
       <c r="N21" s="3">
-        <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="P21" t="s">
+        <f>L21 + K21   +  M21 - (G21 + H21 + I21 +J21)</f>
+        <v>73</v>
+      </c>
+      <c r="Q21" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>81</v>
       </c>
@@ -4206,14 +3546,14 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P22" t="s">
+        <f>L22 + K22   +  M22 - (G22 + H22 + I22 +J22)</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>84</v>
       </c>
@@ -4252,14 +3592,14 @@
         <v>0</v>
       </c>
       <c r="N23" s="3">
-        <f t="shared" si="0"/>
+        <f>L23 + K23   +  M23 - (G23 + H23 + I23 +J23)</f>
         <v>-6</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>87</v>
       </c>
@@ -4295,14 +3635,14 @@
         <v>-7.5</v>
       </c>
       <c r="N24" s="3">
-        <f t="shared" si="0"/>
+        <f>L24 + K24   +  M24 - (G24 + H24 + I24 +J24)</f>
         <v>-22.5</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>90</v>
       </c>
@@ -4338,14 +3678,14 @@
         <v>0</v>
       </c>
       <c r="N25" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P25" t="s">
+        <f>L25 + K25   +  M25 - (G25 + H25 + I25 +J25)</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>93</v>
       </c>
@@ -4384,14 +3724,14 @@
         <v>0</v>
       </c>
       <c r="N26" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P26" t="s">
+        <f>L26 + K26   +  M26 - (G26 + H26 + I26 +J26)</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>96</v>
       </c>
@@ -4430,14 +3770,14 @@
         <v>0</v>
       </c>
       <c r="N27" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P27" t="s">
+        <f>L27 + K27   +  M27 - (G27 + H27 + I27 +J27)</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>99</v>
       </c>
@@ -4476,14 +3816,14 @@
         <v>0</v>
       </c>
       <c r="N28" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P28" t="s">
+        <f>L28 + K28   +  M28 - (G28 + H28 + I28 +J28)</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>102</v>
       </c>
@@ -4524,14 +3864,14 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P29" t="s">
+        <f>L29 + K29   +  M29 - (G29 + H29 + I29 +J29)</f>
+        <v>0</v>
+      </c>
+      <c r="Q29" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>105</v>
       </c>
@@ -4569,14 +3909,14 @@
         <v>0</v>
       </c>
       <c r="N30" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P30" t="s">
+        <f>L30 + K30   +  M30 - (G30 + H30 + I30 +J30)</f>
+        <v>0</v>
+      </c>
+      <c r="Q30" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>108</v>
       </c>
@@ -4614,14 +3954,14 @@
         <v>0</v>
       </c>
       <c r="N31" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P31" t="s">
+        <f>L31 + K31   +  M31 - (G31 + H31 + I31 +J31)</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>111</v>
       </c>
@@ -4660,14 +4000,14 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P32" t="s">
+        <f>L32 + K32   +  M32 - (G32 + H32 + I32 +J32)</f>
+        <v>0</v>
+      </c>
+      <c r="Q32" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>113</v>
       </c>
@@ -4703,14 +4043,14 @@
         <v>-6</v>
       </c>
       <c r="N33" s="3">
-        <f t="shared" si="0"/>
+        <f>L33 + K33   +  M33 - (G33 + H33 + I33 +J33)</f>
         <v>-24</v>
       </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>116</v>
       </c>
@@ -4747,14 +4087,14 @@
         <v>-7.5</v>
       </c>
       <c r="N34" s="3">
-        <f t="shared" si="0"/>
+        <f>L34 + K34   +  M34 - (G34 + H34 + I34 +J34)</f>
         <v>-52.5</v>
       </c>
-      <c r="P34" t="s">
+      <c r="Q34" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>119</v>
       </c>
@@ -4790,14 +4130,14 @@
         <v>-11.5</v>
       </c>
       <c r="N35" s="3">
-        <f t="shared" si="0"/>
+        <f>L35 + K35   +  M35 - (G35 + H35 + I35 +J35)</f>
         <v>-56.5</v>
       </c>
-      <c r="P35" t="s">
+      <c r="Q35" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>122</v>
       </c>
@@ -4833,14 +4173,14 @@
         <v>0</v>
       </c>
       <c r="N36" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P36" t="s">
+        <f>L36 + K36   +  M36 - (G36 + H36 + I36 +J36)</f>
+        <v>0</v>
+      </c>
+      <c r="Q36" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>125</v>
       </c>
@@ -4879,14 +4219,14 @@
         <v>0</v>
       </c>
       <c r="N37" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P37" t="s">
+        <f>L37 + K37   +  M37 - (G37 + H37 + I37 +J37)</f>
+        <v>0</v>
+      </c>
+      <c r="Q37" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>128</v>
       </c>
@@ -4922,14 +4262,14 @@
         <v>-22.5</v>
       </c>
       <c r="N38" s="3">
-        <f t="shared" si="0"/>
+        <f>L38 + K38   +  M38 - (G38 + H38 + I38 +J38)</f>
         <v>-67.5</v>
       </c>
-      <c r="P38" t="s">
+      <c r="Q38" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>131</v>
       </c>
@@ -4965,14 +4305,14 @@
         <v>0</v>
       </c>
       <c r="N39" s="3">
-        <f t="shared" si="0"/>
+        <f>L39 + K39   +  M39 - (G39 + H39 + I39 +J39)</f>
         <v>-2</v>
       </c>
-      <c r="P39" t="s">
+      <c r="Q39" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>134</v>
       </c>
@@ -5010,14 +4350,14 @@
         <v>0</v>
       </c>
       <c r="N40" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P40" t="s">
+        <f>L40 + K40   +  M40 - (G40 + H40 + I40 +J40)</f>
+        <v>0</v>
+      </c>
+      <c r="Q40" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>137</v>
       </c>
@@ -5056,14 +4396,14 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P41" t="s">
+        <f>L41 + K41   +  M41 - (G41 + H41 + I41 +J41)</f>
+        <v>0</v>
+      </c>
+      <c r="Q41" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>140</v>
       </c>
@@ -5102,14 +4442,14 @@
         <v>0</v>
       </c>
       <c r="N42" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P42" t="s">
+        <f>L42 + K42   +  M42 - (G42 + H42 + I42 +J42)</f>
+        <v>0</v>
+      </c>
+      <c r="Q42" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>143</v>
       </c>
@@ -5151,11 +4491,11 @@
         <f>L43 + K43   +  M43 - (G43 + H43 + I43 +J43)</f>
         <v>-7.5</v>
       </c>
-      <c r="P43" t="s">
+      <c r="Q43" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>146</v>
       </c>
@@ -5194,14 +4534,14 @@
         <v>0</v>
       </c>
       <c r="N44" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P44" t="s">
+        <f>L44 + K44   +  M44 - (G44 + H44 + I44 +J44)</f>
+        <v>0</v>
+      </c>
+      <c r="Q44" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>149</v>
       </c>
@@ -5239,15 +4579,15 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P45" t="s">
+        <f>L45 + K45   +  M45 - (G45 + H45 + I45 +J45)</f>
+        <v>0</v>
+      </c>
+      <c r="Q45" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
         <v>152</v>
       </c>
       <c r="B46" t="s">
@@ -5282,20 +4622,23 @@
         <v>0</v>
       </c>
       <c r="N46" s="3">
-        <f t="shared" si="0"/>
+        <f>L46 + K46   +  M46 - (G46 + H46 + I46 +J46)</f>
         <v>-4</v>
       </c>
-      <c r="P46" t="s">
+      <c r="Q46" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
         <v>155</v>
       </c>
       <c r="B47" t="s">
         <v>42</v>
       </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
       <c r="D47" t="s">
         <v>156</v>
       </c>
@@ -5314,7 +4657,9 @@
       <c r="I47" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J47" s="2"/>
+      <c r="J47" s="2">
+        <v>25</v>
+      </c>
       <c r="K47" s="2">
         <v>4</v>
       </c>
@@ -5325,15 +4670,15 @@
         <v>0</v>
       </c>
       <c r="N47" s="3">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="P47" t="s">
+        <f>L47 + K47   +  M47 - (G47 + H47 + I47 +J47)</f>
+        <v>0</v>
+      </c>
+      <c r="Q47" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
         <v>158</v>
       </c>
       <c r="B48" t="s">
@@ -5371,15 +4716,18 @@
         <v>0</v>
       </c>
       <c r="N48" s="3">
-        <f t="shared" si="0"/>
+        <f>L48 + K48   +  M48 - (G48 + H48 + I48 +J48)</f>
         <v>105</v>
       </c>
       <c r="P48" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q48" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="49" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
         <v>161</v>
       </c>
       <c r="B49" t="s">
@@ -5414,15 +4762,17 @@
         <v>-22.5</v>
       </c>
       <c r="N49" s="3">
-        <f t="shared" si="0"/>
+        <f>L49 + K49   +  M49 - (G49 + H49 + I49 +J49)</f>
         <v>-67.5</v>
       </c>
-      <c r="P49" t="s">
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="50" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
         <v>164</v>
       </c>
       <c r="B50" t="s">
@@ -5458,20 +4808,23 @@
         <v>0</v>
       </c>
       <c r="N50" s="3">
-        <f t="shared" si="0"/>
+        <f>L50 + K50   +  M50 - (G50 + H50 + I50 +J50)</f>
         <v>2</v>
       </c>
-      <c r="P50" t="s">
+      <c r="Q50" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="51" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
         <v>167</v>
       </c>
       <c r="B51" t="s">
         <v>46</v>
       </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
       <c r="D51" t="s">
         <v>168</v>
       </c>
@@ -5490,7 +4843,9 @@
       <c r="I51" s="2">
         <v>0</v>
       </c>
-      <c r="J51" s="2"/>
+      <c r="J51" s="2">
+        <v>25</v>
+      </c>
       <c r="K51" s="2">
         <v>0</v>
       </c>
@@ -5501,20 +4856,23 @@
         <v>0</v>
       </c>
       <c r="N51" s="3">
-        <f t="shared" si="0"/>
-        <v>-25</v>
-      </c>
-      <c r="P51" t="s">
+        <f>L51 + K51   +  M51 - (G51 + H51 + I51 +J51)</f>
+        <v>-50</v>
+      </c>
+      <c r="Q51" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="52" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
         <v>170</v>
       </c>
       <c r="B52" t="s">
         <v>46</v>
       </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
       <c r="D52" t="s">
         <v>171</v>
       </c>
@@ -5533,7 +4891,9 @@
       <c r="I52" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J52" s="2"/>
+      <c r="J52" s="2">
+        <v>25</v>
+      </c>
       <c r="K52" s="2">
         <v>0</v>
       </c>
@@ -5545,15 +4905,18 @@
         <v>0</v>
       </c>
       <c r="N52" s="3">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <f>L52 + K52   +  M52 - (G52 + H52 + I52 +J52)</f>
+        <v>15</v>
       </c>
       <c r="P52" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q52" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="53" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
         <v>173</v>
       </c>
       <c r="B53" t="s">
@@ -5588,15 +4951,15 @@
         <v>0</v>
       </c>
       <c r="N53" s="3">
-        <f t="shared" si="0"/>
+        <f>L53 + K53   +  M53 - (G53 + H53 + I53 +J53)</f>
         <v>25</v>
       </c>
-      <c r="P53" t="s">
+      <c r="Q53" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="54" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
         <v>176</v>
       </c>
       <c r="B54" t="s">
@@ -5631,20 +4994,23 @@
         <v>0</v>
       </c>
       <c r="N54" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P54" t="s">
+        <f>L54 + K54   +  M54 - (G54 + H54 + I54 +J54)</f>
+        <v>0</v>
+      </c>
+      <c r="Q54" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="55" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
         <v>179</v>
       </c>
       <c r="B55" t="s">
         <v>16</v>
       </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
       <c r="D55" t="s">
         <v>180</v>
       </c>
@@ -5663,7 +5029,9 @@
       <c r="I55" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J55" s="2"/>
+      <c r="J55" s="2">
+        <v>25</v>
+      </c>
       <c r="K55" s="2">
         <v>0</v>
       </c>
@@ -5674,15 +5042,15 @@
         <v>0</v>
       </c>
       <c r="N55" s="3">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="P55" t="s">
+        <f>L55 + K55   +  M55 - (G55 + H55 + I55 +J55)</f>
+        <v>0</v>
+      </c>
+      <c r="Q55" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="56" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
         <v>182</v>
       </c>
       <c r="B56" t="s">
@@ -5717,31 +5085,34 @@
         <v>0</v>
       </c>
       <c r="N56" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P56" t="s">
+        <f>L56 + K56   +  M56 - (G56 + H56 + I56 +J56)</f>
+        <v>0</v>
+      </c>
+      <c r="Q56" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>185</v>
+    <row r="57" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="B57" t="s">
-        <v>46</v>
+        <v>32</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="E57">
         <v>19</v>
       </c>
       <c r="F57">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G57" s="2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H57" s="2">
         <v>0</v>
@@ -5749,31 +5120,40 @@
       <c r="I57" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J57" s="2"/>
+      <c r="J57" s="2">
+        <v>25</v>
+      </c>
       <c r="K57" s="2">
         <v>0</v>
       </c>
       <c r="L57" s="2">
-        <v>79</v>
-      </c>
-      <c r="M57" s="3">
+        <f>137.5-22.5</f>
+        <v>115</v>
+      </c>
+      <c r="M57" s="4">
         <v>0</v>
       </c>
       <c r="N57" s="3">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <f>L57 + K57   +  M57 - (G57 + H57 + I57 +J57)</f>
+        <v>45</v>
       </c>
       <c r="P57" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
         <v>188</v>
       </c>
       <c r="B58" t="s">
         <v>50</v>
       </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
       <c r="D58" t="s">
         <v>189</v>
       </c>
@@ -5792,7 +5172,9 @@
       <c r="I58" s="2">
         <v>0</v>
       </c>
-      <c r="J58" s="2"/>
+      <c r="J58" s="2">
+        <v>25</v>
+      </c>
       <c r="K58" s="2">
         <v>0</v>
       </c>
@@ -5803,20 +5185,23 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="P58" t="s">
+        <f>L58 + K58   +  M58 - (G58 + H58 + I58 +J58)</f>
+        <v>0</v>
+      </c>
+      <c r="Q58" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="59" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
         <v>191</v>
       </c>
       <c r="B59" t="s">
         <v>46</v>
       </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
       <c r="D59" t="s">
         <v>192</v>
       </c>
@@ -5827,7 +5212,7 @@
         <v>22</v>
       </c>
       <c r="G59" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H59" s="2">
         <v>0</v>
@@ -5835,43 +5220,51 @@
       <c r="I59" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J59" s="2"/>
+      <c r="J59" s="2">
+        <v>25</v>
+      </c>
       <c r="K59" s="2">
         <v>0</v>
       </c>
       <c r="L59" s="2">
-        <f>124.5-26.5-6</f>
-        <v>92</v>
+        <f>122.5-26.5-6</f>
+        <v>90</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
       </c>
       <c r="N59" s="3">
-        <f t="shared" si="0"/>
-        <v>37</v>
+        <f>L59 + K59   +  M59 - (G59 + H59 + I59 +J59)</f>
+        <v>0</v>
       </c>
       <c r="P59" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q59" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>194</v>
+    <row r="60" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
+        <v>197</v>
       </c>
       <c r="B60" t="s">
-        <v>32</v>
+        <v>46</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E60">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F60">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="G60" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H60" s="2">
         <v>0</v>
@@ -5884,41 +5277,37 @@
         <v>0</v>
       </c>
       <c r="L60" s="2">
-        <f>137.5-22.5</f>
-        <v>115</v>
-      </c>
-      <c r="M60" s="4">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
         <v>0</v>
       </c>
       <c r="N60" s="3">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="P60" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>197</v>
+        <f>L60 + K60   +  M60 - (G60 + H60 + I60 +J60)</f>
+        <v>-57</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
+        <v>185</v>
       </c>
       <c r="B61" t="s">
         <v>46</v>
       </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
       <c r="D61" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="E61">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F61">
-        <v>21</v>
-      </c>
-      <c r="G61" s="2">
-        <v>42</v>
+        <v>17</v>
+      </c>
+      <c r="G61" s="7">
+        <v>39</v>
       </c>
       <c r="H61" s="2">
         <v>0</v>
@@ -5926,26 +5315,31 @@
       <c r="I61" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J61" s="2"/>
+      <c r="J61" s="2">
+        <v>25</v>
+      </c>
       <c r="K61" s="2">
         <v>0</v>
       </c>
       <c r="L61" s="2">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
       <c r="N61" s="3">
-        <f t="shared" si="0"/>
-        <v>-57</v>
+        <f>L61 + K61   +  M61 - (G61 + H61 + I61 +J61)</f>
+        <v>0</v>
       </c>
       <c r="P61" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
         <v>200</v>
       </c>
       <c r="B62" t="s">
@@ -5969,8 +5363,9 @@
       <c r="H62" s="2">
         <v>4</v>
       </c>
-      <c r="I62" s="2" t="s">
-        <v>18</v>
+      <c r="I62" s="7">
+        <f>15+7.5</f>
+        <v>22.5</v>
       </c>
       <c r="J62" s="2"/>
       <c r="K62" s="2">
@@ -5983,15 +5378,19 @@
         <v>7.5</v>
       </c>
       <c r="N62" s="3">
-        <f t="shared" si="0"/>
-        <v>-11.5</v>
-      </c>
-      <c r="P62" t="s">
+        <f>L62 + K62   +  M62 - (G62 + H62 + I62 +J62)</f>
+        <v>-19</v>
+      </c>
+      <c r="O62" s="10"/>
+      <c r="P62" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q62" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="63" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
         <v>203</v>
       </c>
       <c r="B63" t="s">
@@ -6013,9 +5412,11 @@
         <v>0</v>
       </c>
       <c r="I63" s="2">
-        <v>0</v>
-      </c>
-      <c r="J63" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="J63" s="2">
+        <v>25</v>
+      </c>
       <c r="K63" s="2">
         <v>0</v>
       </c>
@@ -6026,15 +5427,15 @@
         <v>0</v>
       </c>
       <c r="N63" s="3">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="P63" t="s">
+        <f>L63 + K63   +  M63 - (G63 + H63 + I63 +J63)</f>
+        <v>0</v>
+      </c>
+      <c r="Q63" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="64" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
         <v>206</v>
       </c>
       <c r="B64" t="s">
@@ -6058,7 +5459,9 @@
       <c r="I64" s="2">
         <v>0</v>
       </c>
-      <c r="J64" s="2"/>
+      <c r="J64" s="2">
+        <v>25</v>
+      </c>
       <c r="K64" s="2">
         <v>0</v>
       </c>
@@ -6069,15 +5472,15 @@
         <v>0</v>
       </c>
       <c r="N64" s="3">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="P64" t="s">
+        <f>L64 + K64   +  M64 - (G64 + H64 + I64 +J64)</f>
+        <v>0</v>
+      </c>
+      <c r="Q64" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="65" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
         <v>209</v>
       </c>
       <c r="B65" t="s">
@@ -6099,7 +5502,7 @@
         <v>50</v>
       </c>
       <c r="H65" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>18</v>
@@ -6115,20 +5518,23 @@
         <v>65</v>
       </c>
       <c r="N65" s="3">
-        <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="P65" t="s">
+        <f>L65 + K65   +  M65 - (G65 + H65 + I65 +J65)</f>
+        <v>73</v>
+      </c>
+      <c r="Q65" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="66" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
         <v>211</v>
       </c>
       <c r="B66" t="s">
         <v>46</v>
       </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
       <c r="D66" t="s">
         <v>212</v>
       </c>
@@ -6147,7 +5553,9 @@
       <c r="I66" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J66" s="2"/>
+      <c r="J66" s="2">
+        <v>25</v>
+      </c>
       <c r="K66" s="2">
         <v>0</v>
       </c>
@@ -6159,15 +5567,15 @@
         <v>0</v>
       </c>
       <c r="N66" s="3">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="P66" t="s">
+        <f>L66 + K66   +  M66 - (G66 + H66 + I66 +J66)</f>
+        <v>-15</v>
+      </c>
+      <c r="Q66" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="67" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="11" t="s">
         <v>214</v>
       </c>
       <c r="B67" t="s">
@@ -6205,15 +5613,15 @@
         <v>0</v>
       </c>
       <c r="N67" s="3">
-        <f t="shared" ref="N67:N130" si="1">L67 + K67   +  M67 - (G67 + H67 + I67 +J67)</f>
-        <v>0</v>
-      </c>
-      <c r="P67" t="s">
+        <f>L67 + K67   +  M67 - (G67 + H67 + I67 +J67)</f>
+        <v>0</v>
+      </c>
+      <c r="Q67" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="68" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="9" t="s">
         <v>217</v>
       </c>
       <c r="B68" t="s">
@@ -6251,20 +5659,23 @@
         <v>0</v>
       </c>
       <c r="N68" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P68" t="s">
+        <f>L68 + K68   +  M68 - (G68 + H68 + I68 +J68)</f>
+        <v>0</v>
+      </c>
+      <c r="Q68" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="69" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
         <v>220</v>
       </c>
       <c r="B69" t="s">
         <v>25</v>
       </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
       <c r="D69" t="s">
         <v>221</v>
       </c>
@@ -6283,7 +5694,9 @@
       <c r="I69" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J69" s="2"/>
+      <c r="J69" s="2">
+        <v>25</v>
+      </c>
       <c r="K69" s="2">
         <v>0</v>
       </c>
@@ -6295,15 +5708,15 @@
         <v>0</v>
       </c>
       <c r="N69" s="3">
-        <f t="shared" si="1"/>
-        <v>-24</v>
-      </c>
-      <c r="P69" t="s">
+        <f>L69 + K69   +  M69 - (G69 + H69 + I69 +J69)</f>
+        <v>-49</v>
+      </c>
+      <c r="Q69" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="70" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="9" t="s">
         <v>223</v>
       </c>
       <c r="B70" t="s">
@@ -6341,15 +5754,15 @@
         <v>15</v>
       </c>
       <c r="N70" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P70" t="s">
+        <f>L70 + K70   +  M70 - (G70 + H70 + I70 +J70)</f>
+        <v>0</v>
+      </c>
+      <c r="Q70" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="71" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="9" t="s">
         <v>226</v>
       </c>
       <c r="B71" t="s">
@@ -6384,15 +5797,15 @@
         <v>-22.5</v>
       </c>
       <c r="N71" s="3">
-        <f t="shared" si="1"/>
+        <f>L71 + K71   +  M71 - (G71 + H71 + I71 +J71)</f>
         <v>-73.5</v>
       </c>
-      <c r="P71" t="s">
+      <c r="Q71" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="72" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
         <v>229</v>
       </c>
       <c r="B72" t="s">
@@ -6430,15 +5843,15 @@
         <v>0</v>
       </c>
       <c r="N72" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P72" t="s">
+        <f>L72 + K72   +  M72 - (G72 + H72 + I72 +J72)</f>
+        <v>0</v>
+      </c>
+      <c r="Q72" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="73" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
         <v>232</v>
       </c>
       <c r="B73" t="s">
@@ -6473,15 +5886,15 @@
         <v>0</v>
       </c>
       <c r="N73" s="3">
-        <f t="shared" si="1"/>
+        <f>L73 + K73   +  M73 - (G73 + H73 + I73 +J73)</f>
         <v>-15</v>
       </c>
-      <c r="P73" t="s">
+      <c r="Q73" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="74" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
         <v>235</v>
       </c>
       <c r="B74" t="s">
@@ -6516,31 +5929,34 @@
         <v>-7.5</v>
       </c>
       <c r="N74" s="3">
-        <f t="shared" si="1"/>
+        <f>L74 + K74   +  M74 - (G74 + H74 + I74 +J74)</f>
         <v>-22.5</v>
       </c>
-      <c r="P74" t="s">
+      <c r="Q74" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>238</v>
+    <row r="75" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
+        <v>240</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>46</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E75">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G75" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H75" s="2">
         <v>0</v>
@@ -6553,40 +5969,40 @@
         <v>0</v>
       </c>
       <c r="L75" s="2">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="M75" s="3">
         <v>0</v>
       </c>
       <c r="N75" s="3">
-        <f t="shared" si="1"/>
-        <v>14</v>
+        <f>L75 + K75   +  M75 - (G75 + H75 + I75 +J75)</f>
+        <v>15</v>
       </c>
       <c r="P75" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>240</v>
+        <v>444</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
+        <v>243</v>
       </c>
       <c r="B76" t="s">
-        <v>46</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D76" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H76" s="2">
         <v>0</v>
@@ -6599,28 +6015,28 @@
         <v>0</v>
       </c>
       <c r="L76" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M76" s="3">
-        <v>0</v>
+        <v>-9.5</v>
       </c>
       <c r="N76" s="3">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="P76" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>243</v>
+        <f>L76 + K76   +  M76 - (G76 + H76 + I76 +J76)</f>
+        <v>-54.5</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
+        <v>245</v>
       </c>
       <c r="B77" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D77" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E77">
         <v>23</v>
@@ -6634,73 +6050,80 @@
       <c r="H77" s="2">
         <v>0</v>
       </c>
-      <c r="I77" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J77" s="2"/>
+      <c r="I77" s="2">
+        <v>0</v>
+      </c>
+      <c r="J77" s="2">
+        <v>25</v>
+      </c>
       <c r="K77" s="2">
         <v>0</v>
       </c>
       <c r="L77" s="2">
-        <v>0</v>
-      </c>
-      <c r="M77" s="3">
-        <v>-9.5</v>
-      </c>
-      <c r="N77" s="3">
-        <f t="shared" si="1"/>
-        <v>-54.5</v>
-      </c>
-      <c r="P77" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>245</v>
-      </c>
-      <c r="B78" t="s">
-        <v>46</v>
-      </c>
-      <c r="D78" t="s">
-        <v>246</v>
-      </c>
-      <c r="E78">
-        <v>23</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="G78" s="2">
-        <v>30</v>
-      </c>
-      <c r="H78" s="2">
-        <v>0</v>
-      </c>
-      <c r="I78" s="2">
-        <v>0</v>
-      </c>
-      <c r="J78" s="2"/>
-      <c r="K78" s="2">
-        <v>0</v>
-      </c>
-      <c r="L78" s="2">
         <f>70-15</f>
         <v>55</v>
       </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <f>L77 + K77   +  M77 - (G77 + H77 + I77 +J77)</f>
+        <v>0</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B78" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" t="s">
+        <v>239</v>
+      </c>
+      <c r="E78">
+        <v>20</v>
+      </c>
+      <c r="F78">
+        <v>20</v>
+      </c>
+      <c r="G78" s="7">
+        <v>39</v>
+      </c>
+      <c r="H78" s="2">
+        <v>0</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J78" s="2">
+        <v>25</v>
+      </c>
+      <c r="K78" s="2">
+        <v>0</v>
+      </c>
+      <c r="L78" s="2">
+        <v>79</v>
+      </c>
       <c r="M78" s="3">
         <v>0</v>
       </c>
       <c r="N78" s="3">
-        <f t="shared" si="1"/>
-        <v>25</v>
+        <f>L78 + K78   +  M78 - (G78 + H78 + I78 +J78)</f>
+        <v>0</v>
       </c>
       <c r="P78" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
         <v>248</v>
       </c>
       <c r="B79" t="s">
@@ -6736,15 +6159,15 @@
         <v>0</v>
       </c>
       <c r="N79" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P79" t="s">
+        <f>L79 + K79   +  M79 - (G79 + H79 + I79 +J79)</f>
+        <v>0</v>
+      </c>
+      <c r="Q79" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="80" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
         <v>251</v>
       </c>
       <c r="B80" t="s">
@@ -6782,15 +6205,15 @@
         <v>0</v>
       </c>
       <c r="N80" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P80" t="s">
+        <f>L80 + K80   +  M80 - (G80 + H80 + I80 +J80)</f>
+        <v>0</v>
+      </c>
+      <c r="Q80" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="81" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="9" t="s">
         <v>254</v>
       </c>
       <c r="B81" t="s">
@@ -6828,15 +6251,18 @@
         <v>0</v>
       </c>
       <c r="N81" s="3">
-        <f t="shared" si="1"/>
+        <f>L81 + K81   +  M81 - (G81 + H81 + I81 +J81)</f>
         <v>23</v>
       </c>
       <c r="P81" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q81" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="82" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="9" t="s">
         <v>257</v>
       </c>
       <c r="B82" t="s">
@@ -6860,7 +6286,9 @@
       <c r="I82" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J82" s="2"/>
+      <c r="J82" s="2">
+        <v>25</v>
+      </c>
       <c r="K82" s="2">
         <v>0</v>
       </c>
@@ -6872,15 +6300,15 @@
         <v>0</v>
       </c>
       <c r="N82" s="3">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="P82" t="s">
+        <f>L82 + K82   +  M82 - (G82 + H82 + I82 +J82)</f>
+        <v>0</v>
+      </c>
+      <c r="Q82" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="83" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
         <v>260</v>
       </c>
       <c r="B83" t="s">
@@ -6912,20 +6340,20 @@
         <v>0</v>
       </c>
       <c r="L83" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
       <c r="N83" s="3">
-        <f t="shared" si="1"/>
-        <v>-43</v>
-      </c>
-      <c r="P83" t="s">
+        <f>L83 + K83   +  M83 - (G83 + H83 + I83 +J83)</f>
+        <v>-45</v>
+      </c>
+      <c r="Q83" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>263</v>
       </c>
@@ -6964,15 +6392,15 @@
         <v>0</v>
       </c>
       <c r="N84" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P84" t="s">
+        <f>L84 + K84   +  M84 - (G84 + H84 + I84 +J84)</f>
+        <v>0</v>
+      </c>
+      <c r="Q84" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="85" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="11" t="s">
         <v>265</v>
       </c>
       <c r="B85" t="s">
@@ -7007,15 +6435,15 @@
         <v>0</v>
       </c>
       <c r="N85" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P85" t="s">
+        <f>L85 + K85   +  M85 - (G85 + H85 + I85 +J85)</f>
+        <v>0</v>
+      </c>
+      <c r="Q85" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="86" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="11" t="s">
         <v>268</v>
       </c>
       <c r="B86" t="s">
@@ -7050,15 +6478,15 @@
         <v>0</v>
       </c>
       <c r="N86" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P86" t="s">
+        <f>L86 + K86   +  M86 - (G86 + H86 + I86 +J86)</f>
+        <v>0</v>
+      </c>
+      <c r="Q86" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="87" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="9" t="s">
         <v>271</v>
       </c>
       <c r="B87" t="s">
@@ -7096,15 +6524,15 @@
         <v>0</v>
       </c>
       <c r="N87" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P87" t="s">
+        <f>L87 + K87   +  M87 - (G87 + H87 + I87 +J87)</f>
+        <v>0</v>
+      </c>
+      <c r="Q87" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="88" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="11" t="s">
         <v>273</v>
       </c>
       <c r="B88" t="s">
@@ -7142,15 +6570,15 @@
         <v>0</v>
       </c>
       <c r="N88" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P88" t="s">
+        <f>L88 + K88   +  M88 - (G88 + H88 + I88 +J88)</f>
+        <v>0</v>
+      </c>
+      <c r="Q88" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="89" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="9" t="s">
         <v>276</v>
       </c>
       <c r="B89" t="s">
@@ -7169,7 +6597,7 @@
         <v>50</v>
       </c>
       <c r="H89" s="2">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="I89" s="2" t="s">
         <v>18</v>
@@ -7185,20 +6613,23 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
-        <f t="shared" si="1"/>
-        <v>-4</v>
-      </c>
-      <c r="P89" t="s">
+        <f>L89 + K89   +  M89 - (G89 + H89 + I89 +J89)</f>
+        <v>-2.5</v>
+      </c>
+      <c r="Q89" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="90" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="9" t="s">
         <v>279</v>
       </c>
       <c r="B90" t="s">
         <v>32</v>
       </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
       <c r="D90" t="s">
         <v>280</v>
       </c>
@@ -7217,7 +6648,9 @@
       <c r="I90" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J90" s="2"/>
+      <c r="J90" s="2">
+        <v>25</v>
+      </c>
       <c r="K90" s="2">
         <v>94</v>
       </c>
@@ -7228,15 +6661,15 @@
         <v>0</v>
       </c>
       <c r="N90" s="3">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="P90" t="s">
+        <f>L90 + K90   +  M90 - (G90 + H90 + I90 +J90)</f>
+        <v>0</v>
+      </c>
+      <c r="Q90" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="91" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="9" t="s">
         <v>282</v>
       </c>
       <c r="B91" t="s">
@@ -7274,15 +6707,15 @@
         <v>42.5</v>
       </c>
       <c r="N91" s="3">
-        <f t="shared" si="1"/>
+        <f>L91 + K91   +  M91 - (G91 + H91 + I91 +J91)</f>
         <v>-22.5</v>
       </c>
-      <c r="P91" t="s">
+      <c r="Q91" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="92" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="9" t="s">
         <v>285</v>
       </c>
       <c r="B92" t="s">
@@ -7317,15 +6750,15 @@
         <v>-4</v>
       </c>
       <c r="N92" s="3">
-        <f t="shared" si="1"/>
+        <f>L92 + K92   +  M92 - (G92 + H92 + I92 +J92)</f>
         <v>-10</v>
       </c>
-      <c r="P92" t="s">
+      <c r="Q92" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="93" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="9" t="s">
         <v>288</v>
       </c>
       <c r="B93" t="s">
@@ -7360,20 +6793,23 @@
         <v>0</v>
       </c>
       <c r="N93" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P93" t="s">
+        <f>L93 + K93   +  M93 - (G93 + H93 + I93 +J93)</f>
+        <v>0</v>
+      </c>
+      <c r="Q93" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="94" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
         <v>291</v>
       </c>
       <c r="B94" t="s">
         <v>42</v>
       </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
       <c r="D94" t="s">
         <v>292</v>
       </c>
@@ -7392,7 +6828,9 @@
       <c r="I94" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J94" s="2"/>
+      <c r="J94" s="2">
+        <v>25</v>
+      </c>
       <c r="K94" s="2">
         <v>0</v>
       </c>
@@ -7404,20 +6842,23 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="P94" t="s">
+        <f>L94 + K94   +  M94 - (G94 + H94 + I94 +J94)</f>
+        <v>-4</v>
+      </c>
+      <c r="Q94" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="95" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="9" t="s">
         <v>294</v>
       </c>
       <c r="B95" t="s">
         <v>32</v>
       </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
       <c r="D95" t="s">
         <v>295</v>
       </c>
@@ -7436,27 +6877,29 @@
       <c r="I95" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J95" s="2"/>
+      <c r="J95" s="2">
+        <v>25</v>
+      </c>
       <c r="K95" s="2">
         <v>0</v>
       </c>
       <c r="L95" s="2">
-        <f>96-10</f>
-        <v>86</v>
+        <f>96-15</f>
+        <v>81</v>
       </c>
       <c r="M95" s="3">
         <v>0</v>
       </c>
       <c r="N95" s="3">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="P95" t="s">
+        <f>L95 + K95   +  M95 - (G95 + H95 + I95 +J95)</f>
+        <v>7</v>
+      </c>
+      <c r="Q95" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="96" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="9" t="s">
         <v>297</v>
       </c>
       <c r="B96" t="s">
@@ -7480,7 +6923,9 @@
       <c r="I96" s="2">
         <v>0</v>
       </c>
-      <c r="J96" s="2"/>
+      <c r="J96" s="2">
+        <v>25</v>
+      </c>
       <c r="K96" s="2">
         <v>0</v>
       </c>
@@ -7491,15 +6936,15 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="P96" t="s">
+        <f>L96 + K96   +  M96 - (G96 + H96 + I96 +J96)</f>
+        <v>0</v>
+      </c>
+      <c r="Q96" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="97" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="9" t="s">
         <v>300</v>
       </c>
       <c r="B97" t="s">
@@ -7520,10 +6965,12 @@
       <c r="H97" s="2">
         <v>4</v>
       </c>
-      <c r="I97" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J97" s="2"/>
+      <c r="I97" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="J97" s="2">
+        <v>25</v>
+      </c>
       <c r="K97" s="2">
         <v>0</v>
       </c>
@@ -7535,15 +6982,18 @@
         <v>0</v>
       </c>
       <c r="N97" s="3">
-        <f t="shared" si="1"/>
-        <v>17.5</v>
+        <f>L97 + K97   +  M97 - (G97 + H97 + I97 +J97)</f>
+        <v>0</v>
       </c>
       <c r="P97" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q97" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="98" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="9" t="s">
         <v>303</v>
       </c>
       <c r="B98" t="s">
@@ -7581,20 +7031,23 @@
         <v>0</v>
       </c>
       <c r="N98" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P98" t="s">
+        <f>L98 + K98   +  M98 - (G98 + H98 + I98 +J98)</f>
+        <v>0</v>
+      </c>
+      <c r="Q98" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="99" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="9" t="s">
         <v>306</v>
       </c>
       <c r="B99" t="s">
         <v>21</v>
       </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
       <c r="D99" t="s">
         <v>307</v>
       </c>
@@ -7613,7 +7066,9 @@
       <c r="I99" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J99" s="2"/>
+      <c r="J99" s="2">
+        <v>25</v>
+      </c>
       <c r="K99" s="2">
         <v>0</v>
       </c>
@@ -7624,15 +7079,15 @@
         <v>20</v>
       </c>
       <c r="N99" s="3">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="P99" t="s">
+        <f>L99 + K99   +  M99 - (G99 + H99 + I99 +J99)</f>
+        <v>0</v>
+      </c>
+      <c r="Q99" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="100" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="s">
         <v>309</v>
       </c>
       <c r="B100" t="s">
@@ -7667,15 +7122,15 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
-        <f t="shared" si="1"/>
+        <f>L100 + K100   +  M100 - (G100 + H100 + I100 +J100)</f>
         <v>-15</v>
       </c>
-      <c r="P100" t="s">
+      <c r="Q100" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row r="101" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="11" t="s">
         <v>312</v>
       </c>
       <c r="B101" t="s">
@@ -7713,15 +7168,15 @@
         <v>0</v>
       </c>
       <c r="N101" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P101" t="s">
+        <f>L101 + K101   +  M101 - (G101 + H101 + I101 +J101)</f>
+        <v>0</v>
+      </c>
+      <c r="Q101" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row r="102" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="9" t="s">
         <v>315</v>
       </c>
       <c r="B102" t="s">
@@ -7759,20 +7214,23 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
-        <f t="shared" si="1"/>
+        <f>L102 + K102   +  M102 - (G102 + H102 + I102 +J102)</f>
         <v>4</v>
       </c>
-      <c r="P102" t="s">
+      <c r="Q102" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row r="103" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="9" t="s">
         <v>318</v>
       </c>
       <c r="B103" t="s">
         <v>25</v>
       </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
       <c r="D103" t="s">
         <v>319</v>
       </c>
@@ -7791,7 +7249,9 @@
       <c r="I103" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J103" s="2"/>
+      <c r="J103" s="2">
+        <v>25</v>
+      </c>
       <c r="K103" s="2">
         <v>0</v>
       </c>
@@ -7802,15 +7262,15 @@
         <v>0</v>
       </c>
       <c r="N103" s="3">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="P103" t="s">
+        <f>L103 + K103   +  M103 - (G103 + H103 + I103 +J103)</f>
+        <v>10</v>
+      </c>
+      <c r="Q103" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    <row r="104" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="9" t="s">
         <v>321</v>
       </c>
       <c r="B104" t="s">
@@ -7848,15 +7308,15 @@
         <v>0</v>
       </c>
       <c r="N104" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P104" t="s">
+        <f>L104 + K104   +  M104 - (G104 + H104 + I104 +J104)</f>
+        <v>0</v>
+      </c>
+      <c r="Q104" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+    <row r="105" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="9" t="s">
         <v>324</v>
       </c>
       <c r="B105" t="s">
@@ -7891,15 +7351,15 @@
         <v>-15</v>
       </c>
       <c r="N105" s="3">
-        <f t="shared" si="1"/>
+        <f>L105 + K105   +  M105 - (G105 + H105 + I105 +J105)</f>
         <v>-17</v>
       </c>
-      <c r="P105" t="s">
+      <c r="Q105" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    <row r="106" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="9" t="s">
         <v>327</v>
       </c>
       <c r="B106" t="s">
@@ -7934,15 +7394,15 @@
         <v>-11.5</v>
       </c>
       <c r="N106" s="3">
-        <f t="shared" si="1"/>
+        <f>L106 + K106   +  M106 - (G106 + H106 + I106 +J106)</f>
         <v>-30.5</v>
       </c>
-      <c r="P106" t="s">
+      <c r="Q106" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    <row r="107" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="9" t="s">
         <v>330</v>
       </c>
       <c r="B107" t="s">
@@ -7980,15 +7440,15 @@
         <v>0</v>
       </c>
       <c r="N107" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P107" t="s">
+        <f>L107 + K107   +  M107 - (G107 + H107 + I107 +J107)</f>
+        <v>0</v>
+      </c>
+      <c r="Q107" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+    <row r="108" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="9" t="s">
         <v>333</v>
       </c>
       <c r="B108" t="s">
@@ -8023,15 +7483,15 @@
         <v>0</v>
       </c>
       <c r="N108" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P108" t="s">
+        <f>L108 + K108   +  M108 - (G108 + H108 + I108 +J108)</f>
+        <v>0</v>
+      </c>
+      <c r="Q108" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row r="109" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="9" t="s">
         <v>335</v>
       </c>
       <c r="B109" t="s">
@@ -8069,15 +7529,15 @@
         <v>15</v>
       </c>
       <c r="N109" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P109" t="s">
+        <f>L109 + K109   +  M109 - (G109 + H109 + I109 +J109)</f>
+        <v>0</v>
+      </c>
+      <c r="Q109" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+    <row r="110" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="9" t="s">
         <v>338</v>
       </c>
       <c r="B110" t="s">
@@ -8112,15 +7572,15 @@
         <v>-10</v>
       </c>
       <c r="N110" s="3">
-        <f t="shared" si="1"/>
+        <f>L110 + K110   +  M110 - (G110 + H110 + I110 +J110)</f>
         <v>-79</v>
       </c>
-      <c r="P110" t="s">
+      <c r="Q110" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row r="111" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="9" t="s">
         <v>341</v>
       </c>
       <c r="B111" t="s">
@@ -8155,15 +7615,15 @@
         <v>-7.5</v>
       </c>
       <c r="N111" s="3">
-        <f t="shared" si="1"/>
+        <f>L111 + K111   +  M111 - (G111 + H111 + I111 +J111)</f>
         <v>-52.5</v>
       </c>
-      <c r="P111" t="s">
+      <c r="Q111" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+    <row r="112" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="9" t="s">
         <v>344</v>
       </c>
       <c r="B112" t="s">
@@ -8201,15 +7661,15 @@
         <v>45</v>
       </c>
       <c r="N112" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P112" t="s">
+        <f>L112 + K112   +  M112 - (G112 + H112 + I112 +J112)</f>
+        <v>0</v>
+      </c>
+      <c r="Q112" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+    <row r="113" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="9" t="s">
         <v>347</v>
       </c>
       <c r="B113" t="s">
@@ -8244,15 +7704,15 @@
         <v>0</v>
       </c>
       <c r="N113" s="3">
-        <f t="shared" si="1"/>
+        <f>L113 + K113   +  M113 - (G113 + H113 + I113 +J113)</f>
         <v>-45</v>
       </c>
-      <c r="P113" t="s">
+      <c r="Q113" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+    <row r="114" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="11" t="s">
         <v>350</v>
       </c>
       <c r="B114" t="s">
@@ -8287,15 +7747,15 @@
         <v>0</v>
       </c>
       <c r="N114" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P114" t="s">
+        <f>L114 + K114   +  M114 - (G114 + H114 + I114 +J114)</f>
+        <v>0</v>
+      </c>
+      <c r="Q114" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+    <row r="115" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="9" t="s">
         <v>353</v>
       </c>
       <c r="B115" t="s">
@@ -8330,15 +7790,15 @@
         <v>0</v>
       </c>
       <c r="N115" s="3">
-        <f t="shared" si="1"/>
+        <f>L115 + K115   +  M115 - (G115 + H115 + I115 +J115)</f>
         <v>-65</v>
       </c>
-      <c r="P115" t="s">
+      <c r="Q115" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+    <row r="116" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="9" t="s">
         <v>356</v>
       </c>
       <c r="B116" t="s">
@@ -8374,15 +7834,15 @@
         <v>0</v>
       </c>
       <c r="N116" s="3">
-        <f t="shared" si="1"/>
+        <f>L116 + K116   +  M116 - (G116 + H116 + I116 +J116)</f>
         <v>2.5</v>
       </c>
-      <c r="P116" t="s">
+      <c r="Q116" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+    <row r="117" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="9" t="s">
         <v>359</v>
       </c>
       <c r="B117" t="s">
@@ -8406,7 +7866,9 @@
       <c r="I117" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J117" s="2"/>
+      <c r="J117" s="2">
+        <v>25</v>
+      </c>
       <c r="K117" s="2">
         <v>0</v>
       </c>
@@ -8418,15 +7880,15 @@
         <v>0</v>
       </c>
       <c r="N117" s="3">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="P117" t="s">
+        <f>L117 + K117   +  M117 - (G117 + H117 + I117 +J117)</f>
+        <v>-15</v>
+      </c>
+      <c r="Q117" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+    <row r="118" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="9" t="s">
         <v>362</v>
       </c>
       <c r="B118" t="s">
@@ -8461,15 +7923,15 @@
         <v>-7.5</v>
       </c>
       <c r="N118" s="3">
-        <f t="shared" si="1"/>
+        <f>L118 + K118   +  M118 - (G118 + H118 + I118 +J118)</f>
         <v>-22.5</v>
       </c>
-      <c r="P118" t="s">
+      <c r="Q118" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+    <row r="119" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="9" t="s">
         <v>365</v>
       </c>
       <c r="B119" t="s">
@@ -8493,7 +7955,9 @@
       <c r="I119" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J119" s="2"/>
+      <c r="J119" s="2">
+        <v>25</v>
+      </c>
       <c r="K119" s="2">
         <v>0</v>
       </c>
@@ -8505,15 +7969,15 @@
         <v>0</v>
       </c>
       <c r="N119" s="3">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="P119" t="s">
+        <f>L119 + K119   +  M119 - (G119 + H119 + I119 +J119)</f>
+        <v>0</v>
+      </c>
+      <c r="Q119" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+    <row r="120" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="9" t="s">
         <v>368</v>
       </c>
       <c r="B120" t="s">
@@ -8551,15 +8015,15 @@
         <v>15</v>
       </c>
       <c r="N120" s="3">
-        <f t="shared" si="1"/>
+        <f>L120 + K120   +  M120 - (G120 + H120 + I120 +J120)</f>
         <v>23</v>
       </c>
-      <c r="P120" t="s">
+      <c r="Q120" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+    <row r="121" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="11" t="s">
         <v>371</v>
       </c>
       <c r="B121" t="s">
@@ -8594,15 +8058,15 @@
         <v>0</v>
       </c>
       <c r="N121" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P121" t="s">
+        <f>L121 + K121   +  M121 - (G121 + H121 + I121 +J121)</f>
+        <v>0</v>
+      </c>
+      <c r="Q121" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+    <row r="122" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="9" t="s">
         <v>374</v>
       </c>
       <c r="B122" t="s">
@@ -8618,7 +8082,7 @@
         <v>0</v>
       </c>
       <c r="G122" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H122" s="2">
         <v>0</v>
@@ -8637,15 +8101,18 @@
         <v>0</v>
       </c>
       <c r="N122" s="3">
-        <f t="shared" si="1"/>
-        <v>85</v>
+        <f>L122 + K122   +  M122 - (G122 + H122 + I122 +J122)</f>
+        <v>65</v>
       </c>
       <c r="P122" t="s">
+        <v>450</v>
+      </c>
+      <c r="Q122" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+    <row r="123" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="9" t="s">
         <v>377</v>
       </c>
       <c r="B123" t="s">
@@ -8683,20 +8150,23 @@
         <v>0</v>
       </c>
       <c r="N123" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P123" t="s">
+        <f>L123 + K123   +  M123 - (G123 + H123 + I123 +J123)</f>
+        <v>0</v>
+      </c>
+      <c r="Q123" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+    <row r="124" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="9" t="s">
         <v>380</v>
       </c>
       <c r="B124" t="s">
         <v>16</v>
       </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
       <c r="D124" t="s">
         <v>381</v>
       </c>
@@ -8715,7 +8185,9 @@
       <c r="I124" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J124" s="2"/>
+      <c r="J124" s="2">
+        <v>25</v>
+      </c>
       <c r="K124" s="2">
         <v>0</v>
       </c>
@@ -8727,15 +8199,15 @@
         <v>0</v>
       </c>
       <c r="N124" s="3">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="P124" t="s">
+        <f>L124 + K124   +  M124 - (G124 + H124 + I124 +J124)</f>
+        <v>0</v>
+      </c>
+      <c r="Q124" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+    <row r="125" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="9" t="s">
         <v>383</v>
       </c>
       <c r="B125" t="s">
@@ -8773,15 +8245,15 @@
         <v>0</v>
       </c>
       <c r="N125" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P125" t="s">
+        <f>L125 + K125   +  M125 - (G125 + H125 + I125 +J125)</f>
+        <v>0</v>
+      </c>
+      <c r="Q125" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+    <row r="126" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="9" t="s">
         <v>386</v>
       </c>
       <c r="B126" t="s">
@@ -8819,22 +8291,25 @@
         <v>0</v>
       </c>
       <c r="N126" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P126" t="s">
+        <f>L126 + K126   +  M126 - (G126 + H126 + I126 +J126)</f>
+        <v>0</v>
+      </c>
+      <c r="Q126" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+    <row r="127" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="9" t="s">
         <v>389</v>
       </c>
       <c r="B127" t="s">
         <v>46</v>
       </c>
-      <c r="D127" t="s">
-        <v>390</v>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>295015160</v>
       </c>
       <c r="E127">
         <v>22</v>
@@ -8851,7 +8326,9 @@
       <c r="I127" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J127" s="2"/>
+      <c r="J127" s="2">
+        <v>25</v>
+      </c>
       <c r="K127" s="2">
         <v>0</v>
       </c>
@@ -8863,22 +8340,25 @@
         <v>0</v>
       </c>
       <c r="N127" s="3">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="P127" t="s">
+        <f>L127 + K127   +  M127 - (G127 + H127 + I127 +J127)</f>
+        <v>-6</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="9" t="s">
         <v>391</v>
-      </c>
-    </row>
-    <row r="128" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>392</v>
       </c>
       <c r="B128" t="s">
         <v>50</v>
       </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
       <c r="D128" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -8895,7 +8375,9 @@
       <c r="I128" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J128" s="2"/>
+      <c r="J128" s="2">
+        <v>25</v>
+      </c>
       <c r="K128" s="2">
         <v>0</v>
       </c>
@@ -8906,16 +8388,16 @@
         <v>15</v>
       </c>
       <c r="N128" s="3">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="P128" t="s">
+        <f>L128 + K128   +  M128 - (G128 + H128 + I128 +J128)</f>
+        <v>15</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="9" t="s">
         <v>394</v>
-      </c>
-    </row>
-    <row r="129" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>395</v>
       </c>
       <c r="B129" t="s">
         <v>16</v>
@@ -8924,7 +8406,7 @@
         <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -8952,22 +8434,22 @@
         <v>0</v>
       </c>
       <c r="N129" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P129" t="s">
+        <f>L129 + K129   +  M129 - (G129 + H129 + I129 +J129)</f>
+        <v>0</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="9" t="s">
         <v>397</v>
-      </c>
-    </row>
-    <row r="130" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>398</v>
       </c>
       <c r="B130" t="s">
         <v>25</v>
       </c>
       <c r="D130" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -8995,22 +8477,25 @@
         <v>0</v>
       </c>
       <c r="N130" s="3">
-        <f t="shared" si="1"/>
+        <f>L130 + K130   +  M130 - (G130 + H130 + I130 +J130)</f>
         <v>-15</v>
       </c>
-      <c r="P130" t="s">
+      <c r="Q130" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="9" t="s">
         <v>400</v>
-      </c>
-    </row>
-    <row r="131" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>401</v>
       </c>
       <c r="B131" t="s">
         <v>50</v>
       </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
       <c r="D131" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -9027,7 +8512,9 @@
       <c r="I131" s="2">
         <v>0</v>
       </c>
-      <c r="J131" s="2"/>
+      <c r="J131" s="2">
+        <v>25</v>
+      </c>
       <c r="K131" s="2">
         <v>25</v>
       </c>
@@ -9038,16 +8525,16 @@
         <v>0</v>
       </c>
       <c r="N131" s="3">
-        <f t="shared" ref="N131:N145" si="2">L131 + K131   +  M131 - (G131 + H131 + I131 +J131)</f>
-        <v>25</v>
-      </c>
-      <c r="P131" t="s">
+        <f>L131 + K131   +  M131 - (G131 + H131 + I131 +J131)</f>
+        <v>0</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="9" t="s">
         <v>403</v>
-      </c>
-    </row>
-    <row r="132" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>404</v>
       </c>
       <c r="B132" t="s">
         <v>21</v>
@@ -9056,16 +8543,16 @@
         <v>1</v>
       </c>
       <c r="D132" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E132">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F132">
         <v>1</v>
       </c>
       <c r="G132" s="2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H132" s="2">
         <v>0</v>
@@ -9084,22 +8571,25 @@
         <v>0</v>
       </c>
       <c r="N132" s="3">
-        <f t="shared" si="2"/>
-        <v>26</v>
+        <f>L132 + K132   +  M132 - (G132 + H132 + I132 +J132)</f>
+        <v>18</v>
       </c>
       <c r="P132" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="9" t="s">
         <v>406</v>
-      </c>
-    </row>
-    <row r="133" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>407</v>
       </c>
       <c r="B133" t="s">
         <v>16</v>
       </c>
       <c r="D133" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -9128,22 +8618,22 @@
         <v>-7.5</v>
       </c>
       <c r="N133" s="3">
-        <f t="shared" si="2"/>
+        <f>L133 + K133   +  M133 - (G133 + H133 + I133 +J133)</f>
         <v>-2.5</v>
       </c>
-      <c r="P133" t="s">
+      <c r="Q133" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="9" t="s">
         <v>409</v>
-      </c>
-    </row>
-    <row r="134" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>410</v>
       </c>
       <c r="B134" t="s">
         <v>25</v>
       </c>
       <c r="D134" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -9160,7 +8650,9 @@
       <c r="I134" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J134" s="2"/>
+      <c r="J134" s="2">
+        <v>25</v>
+      </c>
       <c r="K134" s="2">
         <v>0</v>
       </c>
@@ -9171,16 +8663,16 @@
         <v>0</v>
       </c>
       <c r="N134" s="3">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="P134" t="s">
+        <f>L134 + K134   +  M134 - (G134 + H134 + I134 +J134)</f>
+        <v>0</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="9" t="s">
         <v>412</v>
-      </c>
-    </row>
-    <row r="135" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>413</v>
       </c>
       <c r="B135" t="s">
         <v>46</v>
@@ -9189,7 +8681,7 @@
         <v>1</v>
       </c>
       <c r="D135" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -9217,22 +8709,25 @@
         <v>0</v>
       </c>
       <c r="N135" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P135" t="s">
+        <f>L135 + K135   +  M135 - (G135 + H135 + I135 +J135)</f>
+        <v>0</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="9" t="s">
         <v>415</v>
-      </c>
-    </row>
-    <row r="136" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>416</v>
       </c>
       <c r="B136" t="s">
         <v>16</v>
       </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
       <c r="D136" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E136">
         <v>1</v>
@@ -9249,7 +8744,9 @@
       <c r="I136" s="2">
         <v>0</v>
       </c>
-      <c r="J136" s="2"/>
+      <c r="J136" s="2">
+        <v>25</v>
+      </c>
       <c r="K136" s="2">
         <v>0</v>
       </c>
@@ -9261,22 +8758,25 @@
         <v>0</v>
       </c>
       <c r="N136" s="3">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="P136" t="s">
+        <f>L136 + K136   +  M136 - (G136 + H136 + I136 +J136)</f>
+        <v>-2</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="9" t="s">
         <v>418</v>
-      </c>
-    </row>
-    <row r="137" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>419</v>
       </c>
       <c r="B137" t="s">
         <v>16</v>
       </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
       <c r="D137" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -9293,7 +8793,9 @@
       <c r="I137" s="2">
         <v>0</v>
       </c>
-      <c r="J137" s="2"/>
+      <c r="J137" s="2">
+        <v>25</v>
+      </c>
       <c r="K137" s="2">
         <v>0</v>
       </c>
@@ -9304,22 +8806,25 @@
         <v>0</v>
       </c>
       <c r="N137" s="3">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="P137" t="s">
+        <f>L137 + K137   +  M137 - (G137 + H137 + I137 +J137)</f>
+        <v>0</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="9" t="s">
         <v>421</v>
-      </c>
-    </row>
-    <row r="138" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>422</v>
       </c>
       <c r="B138" t="s">
         <v>42</v>
       </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
       <c r="D138" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -9336,7 +8841,9 @@
       <c r="I138" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J138" s="2"/>
+      <c r="J138" s="2">
+        <v>25</v>
+      </c>
       <c r="K138" s="2">
         <v>0</v>
       </c>
@@ -9348,16 +8855,16 @@
         <v>0</v>
       </c>
       <c r="N138" s="3">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="P138" t="s">
+        <f>L138 + K138   +  M138 - (G138 + H138 + I138 +J138)</f>
+        <v>45</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="9" t="s">
         <v>424</v>
-      </c>
-    </row>
-    <row r="139" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>425</v>
       </c>
       <c r="B139" t="s">
         <v>32</v>
@@ -9366,7 +8873,7 @@
         <v>1</v>
       </c>
       <c r="D139" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E139">
         <v>3</v>
@@ -9394,16 +8901,16 @@
         <v>0</v>
       </c>
       <c r="N139" s="3">
-        <f t="shared" si="2"/>
+        <f>L139 + K139   +  M139 - (G139 + H139 + I139 +J139)</f>
         <v>20</v>
       </c>
-      <c r="P139" t="s">
+      <c r="Q139" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="9" t="s">
         <v>427</v>
-      </c>
-    </row>
-    <row r="140" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>428</v>
       </c>
       <c r="B140" t="s">
         <v>16</v>
@@ -9412,7 +8919,7 @@
         <v>1</v>
       </c>
       <c r="D140" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E140">
         <v>22</v>
@@ -9440,22 +8947,22 @@
         <v>0</v>
       </c>
       <c r="N140" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P140" t="s">
+        <f>L140 + K140   +  M140 - (G140 + H140 + I140 +J140)</f>
+        <v>0</v>
+      </c>
+      <c r="Q140" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>430</v>
+    <row r="141" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="9" t="s">
+        <v>429</v>
       </c>
       <c r="B141" t="s">
         <v>50</v>
       </c>
       <c r="D141" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E141">
         <v>23</v>
@@ -9472,7 +8979,9 @@
       <c r="I141" s="2">
         <v>0</v>
       </c>
-      <c r="J141" s="2"/>
+      <c r="J141" s="2">
+        <v>25</v>
+      </c>
       <c r="K141" s="2">
         <v>0</v>
       </c>
@@ -9484,22 +8993,22 @@
         <v>0</v>
       </c>
       <c r="N141" s="3">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="P141" t="s">
+        <f>L141 + K141   +  M141 - (G141 + H141 + I141 +J141)</f>
+        <v>0</v>
+      </c>
+      <c r="Q141" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>432</v>
+    <row r="142" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="9" t="s">
+        <v>431</v>
       </c>
       <c r="B142" t="s">
         <v>42</v>
       </c>
       <c r="D142" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -9527,22 +9036,22 @@
         <v>-7.5</v>
       </c>
       <c r="N142" s="3">
-        <f t="shared" si="2"/>
+        <f>L142 + K142   +  M142 - (G142 + H142 + I142 +J142)</f>
         <v>-22.5</v>
       </c>
-      <c r="P142" t="s">
+      <c r="Q142" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>434</v>
+    <row r="143" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="9" t="s">
+        <v>433</v>
       </c>
       <c r="B143" t="s">
         <v>21</v>
       </c>
       <c r="D143" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -9570,22 +9079,22 @@
         <v>-7.5</v>
       </c>
       <c r="N143" s="3">
-        <f t="shared" si="2"/>
+        <f>L143 + K143   +  M143 - (G143 + H143 + I143 +J143)</f>
         <v>-22.5</v>
       </c>
-      <c r="P143" t="s">
+      <c r="Q143" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="9" t="s">
         <v>436</v>
-      </c>
-    </row>
-    <row r="144" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>437</v>
       </c>
       <c r="B144" t="s">
         <v>42</v>
       </c>
       <c r="D144" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -9613,22 +9122,22 @@
         <v>-2</v>
       </c>
       <c r="N144" s="3">
-        <f t="shared" si="2"/>
+        <f>L144 + K144   +  M144 - (G144 + H144 + I144 +J144)</f>
         <v>-2</v>
       </c>
-      <c r="P144" t="s">
+      <c r="Q144" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="9" t="s">
         <v>439</v>
-      </c>
-    </row>
-    <row r="145" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>440</v>
       </c>
       <c r="B145" t="s">
         <v>21</v>
       </c>
       <c r="D145" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E145">
         <v>0</v>
@@ -9656,736 +9165,736 @@
         <v>-2</v>
       </c>
       <c r="N145" s="3">
-        <f t="shared" si="2"/>
+        <f>L145 + K145   +  M145 - (G145 + H145 + I145 +J145)</f>
         <v>-2</v>
       </c>
-      <c r="P145" t="s">
-        <v>439</v>
+      <c r="Q145" t="s">
+        <v>438</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P145" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P145">
+  <autoFilter ref="A1:Q145" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q145">
       <sortCondition ref="A1:A145"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="N2:N145">
-    <cfRule type="cellIs" dxfId="287" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="144" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2">
-    <cfRule type="cellIs" dxfId="286" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3">
-    <cfRule type="cellIs" dxfId="284" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="cellIs" dxfId="282" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="141" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="cellIs" dxfId="280" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="cellIs" dxfId="278" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7">
-    <cfRule type="cellIs" dxfId="276" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="cellIs" dxfId="274" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9">
-    <cfRule type="cellIs" dxfId="272" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
-    <cfRule type="cellIs" dxfId="270" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11">
-    <cfRule type="cellIs" dxfId="268" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="cellIs" dxfId="266" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="cellIs" dxfId="264" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14">
-    <cfRule type="cellIs" dxfId="262" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15">
-    <cfRule type="cellIs" dxfId="260" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16">
-    <cfRule type="cellIs" dxfId="258" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M17">
-    <cfRule type="cellIs" dxfId="256" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M18">
-    <cfRule type="cellIs" dxfId="254" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19">
-    <cfRule type="cellIs" dxfId="252" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M20">
-    <cfRule type="cellIs" dxfId="250" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M21">
-    <cfRule type="cellIs" dxfId="248" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22">
-    <cfRule type="cellIs" dxfId="246" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M23">
-    <cfRule type="cellIs" dxfId="244" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M24">
-    <cfRule type="cellIs" dxfId="242" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M25">
-    <cfRule type="cellIs" dxfId="240" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M26">
-    <cfRule type="cellIs" dxfId="238" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27">
-    <cfRule type="cellIs" dxfId="236" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M28">
-    <cfRule type="cellIs" dxfId="234" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29">
-    <cfRule type="cellIs" dxfId="232" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M30">
-    <cfRule type="cellIs" dxfId="230" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M31">
-    <cfRule type="cellIs" dxfId="228" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M32">
-    <cfRule type="cellIs" dxfId="226" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33">
-    <cfRule type="cellIs" dxfId="224" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M34">
-    <cfRule type="cellIs" dxfId="222" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M35">
-    <cfRule type="cellIs" dxfId="220" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M36">
-    <cfRule type="cellIs" dxfId="218" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M37">
-    <cfRule type="cellIs" dxfId="216" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M38">
-    <cfRule type="cellIs" dxfId="214" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M39">
-    <cfRule type="cellIs" dxfId="212" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M40">
-    <cfRule type="cellIs" dxfId="210" priority="78" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M41">
-    <cfRule type="cellIs" dxfId="208" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M42">
-    <cfRule type="cellIs" dxfId="206" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M43">
-    <cfRule type="cellIs" dxfId="204" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M44">
-    <cfRule type="cellIs" dxfId="202" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M45">
-    <cfRule type="cellIs" dxfId="200" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M46">
-    <cfRule type="cellIs" dxfId="198" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M47">
-    <cfRule type="cellIs" dxfId="196" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M48">
-    <cfRule type="cellIs" dxfId="194" priority="94" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="94" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M49">
-    <cfRule type="cellIs" dxfId="192" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M50">
-    <cfRule type="cellIs" dxfId="190" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M51">
-    <cfRule type="cellIs" dxfId="188" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M52">
-    <cfRule type="cellIs" dxfId="186" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M53">
-    <cfRule type="cellIs" dxfId="184" priority="104" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="104" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M54">
-    <cfRule type="cellIs" dxfId="182" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M55">
-    <cfRule type="cellIs" dxfId="180" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M56">
-    <cfRule type="cellIs" dxfId="178" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M57">
-    <cfRule type="cellIs" dxfId="176" priority="112" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="112" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M58">
-    <cfRule type="cellIs" dxfId="174" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M59">
-    <cfRule type="cellIs" dxfId="172" priority="116" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="116" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M60">
-    <cfRule type="cellIs" dxfId="170" priority="118" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="118" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M61">
-    <cfRule type="cellIs" dxfId="168" priority="120" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="120" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M62">
-    <cfRule type="cellIs" dxfId="166" priority="122" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="122" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M63">
-    <cfRule type="cellIs" dxfId="164" priority="124" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M64">
-    <cfRule type="cellIs" dxfId="162" priority="126" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="126" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M65">
-    <cfRule type="cellIs" dxfId="160" priority="128" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="128" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M66">
-    <cfRule type="cellIs" dxfId="158" priority="130" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="130" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M67">
-    <cfRule type="cellIs" dxfId="156" priority="132" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="132" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M68">
-    <cfRule type="cellIs" dxfId="154" priority="134" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="134" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M69">
-    <cfRule type="cellIs" dxfId="152" priority="136" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="136" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M70">
-    <cfRule type="cellIs" dxfId="150" priority="138" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="138" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M71">
-    <cfRule type="cellIs" dxfId="148" priority="140" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="140" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M72">
-    <cfRule type="cellIs" dxfId="146" priority="142" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="142" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M73">
-    <cfRule type="cellIs" dxfId="144" priority="144" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="144" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M74">
-    <cfRule type="cellIs" dxfId="142" priority="146" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="146" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M75">
-    <cfRule type="cellIs" dxfId="140" priority="148" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="148" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M76">
-    <cfRule type="cellIs" dxfId="138" priority="150" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="150" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M77">
-    <cfRule type="cellIs" dxfId="136" priority="152" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="152" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M78">
-    <cfRule type="cellIs" dxfId="134" priority="154" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="154" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M79">
-    <cfRule type="cellIs" dxfId="132" priority="156" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="156" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M80">
-    <cfRule type="cellIs" dxfId="130" priority="158" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="158" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M81">
-    <cfRule type="cellIs" dxfId="128" priority="160" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="160" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M82">
-    <cfRule type="cellIs" dxfId="126" priority="162" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="162" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M83">
-    <cfRule type="cellIs" dxfId="124" priority="164" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="164" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M84">
-    <cfRule type="cellIs" dxfId="122" priority="166" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="166" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M85">
-    <cfRule type="cellIs" dxfId="120" priority="168" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="168" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M86">
-    <cfRule type="cellIs" dxfId="118" priority="170" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="170" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M87">
-    <cfRule type="cellIs" dxfId="116" priority="172" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="172" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M88">
-    <cfRule type="cellIs" dxfId="114" priority="174" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="174" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M89">
-    <cfRule type="cellIs" dxfId="112" priority="176" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="176" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M90">
-    <cfRule type="cellIs" dxfId="110" priority="178" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="178" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M91">
-    <cfRule type="cellIs" dxfId="108" priority="180" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="180" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M92">
-    <cfRule type="cellIs" dxfId="106" priority="182" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="182" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M93">
-    <cfRule type="cellIs" dxfId="104" priority="184" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="184" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M94">
-    <cfRule type="cellIs" dxfId="102" priority="186" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="186" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M95">
-    <cfRule type="cellIs" dxfId="100" priority="188" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="188" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M96">
-    <cfRule type="cellIs" dxfId="98" priority="190" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="190" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M97">
-    <cfRule type="cellIs" dxfId="96" priority="192" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="192" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M98">
-    <cfRule type="cellIs" dxfId="94" priority="194" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="194" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M99">
-    <cfRule type="cellIs" dxfId="92" priority="196" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="196" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M100">
-    <cfRule type="cellIs" dxfId="90" priority="198" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="198" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M101">
-    <cfRule type="cellIs" dxfId="88" priority="200" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="200" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M102">
-    <cfRule type="cellIs" dxfId="86" priority="202" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="202" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M103">
-    <cfRule type="cellIs" dxfId="84" priority="204" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="204" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M104">
-    <cfRule type="cellIs" dxfId="82" priority="206" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="206" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M105">
-    <cfRule type="cellIs" dxfId="80" priority="208" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="208" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M106">
-    <cfRule type="cellIs" dxfId="78" priority="210" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="210" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M107">
-    <cfRule type="cellIs" dxfId="76" priority="212" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="212" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M108">
-    <cfRule type="cellIs" dxfId="74" priority="214" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="214" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M109">
-    <cfRule type="cellIs" dxfId="72" priority="216" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="216" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M110">
-    <cfRule type="cellIs" dxfId="70" priority="218" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="218" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M111">
-    <cfRule type="cellIs" dxfId="68" priority="220" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="220" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M112">
-    <cfRule type="cellIs" dxfId="66" priority="222" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="222" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M113">
-    <cfRule type="cellIs" dxfId="64" priority="224" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="224" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M114">
-    <cfRule type="cellIs" dxfId="62" priority="226" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="226" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M115">
-    <cfRule type="cellIs" dxfId="60" priority="228" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="228" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M116">
-    <cfRule type="cellIs" dxfId="58" priority="230" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="230" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M117">
-    <cfRule type="cellIs" dxfId="56" priority="232" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="232" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M118">
-    <cfRule type="cellIs" dxfId="54" priority="234" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="234" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M119">
-    <cfRule type="cellIs" dxfId="52" priority="236" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="236" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M120">
-    <cfRule type="cellIs" dxfId="50" priority="238" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="238" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M121">
-    <cfRule type="cellIs" dxfId="48" priority="240" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="240" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M122">
-    <cfRule type="cellIs" dxfId="46" priority="242" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="242" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M123">
-    <cfRule type="cellIs" dxfId="44" priority="244" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="244" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M124">
-    <cfRule type="cellIs" dxfId="42" priority="246" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="246" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M125">
-    <cfRule type="cellIs" dxfId="40" priority="248" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="248" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M126">
-    <cfRule type="cellIs" dxfId="38" priority="250" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="250" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M127">
-    <cfRule type="cellIs" dxfId="36" priority="252" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="252" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M128">
-    <cfRule type="cellIs" dxfId="34" priority="254" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="254" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M129">
-    <cfRule type="cellIs" dxfId="32" priority="256" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="256" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M130">
-    <cfRule type="cellIs" dxfId="30" priority="258" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="258" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M131">
-    <cfRule type="cellIs" dxfId="28" priority="260" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="260" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M132">
-    <cfRule type="cellIs" dxfId="26" priority="262" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="262" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M133">
-    <cfRule type="cellIs" dxfId="24" priority="264" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="264" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M134">
-    <cfRule type="cellIs" dxfId="22" priority="266" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="266" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M135">
-    <cfRule type="cellIs" dxfId="20" priority="268" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="268" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M136">
-    <cfRule type="cellIs" dxfId="18" priority="270" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="270" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M137">
-    <cfRule type="cellIs" dxfId="16" priority="272" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="272" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M138">
-    <cfRule type="cellIs" dxfId="14" priority="274" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="274" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M139">
-    <cfRule type="cellIs" dxfId="12" priority="276" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="276" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M140">
-    <cfRule type="cellIs" dxfId="10" priority="278" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="278" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M141">
-    <cfRule type="cellIs" dxfId="8" priority="280" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="280" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M142">
-    <cfRule type="cellIs" dxfId="6" priority="282" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="282" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M143">
-    <cfRule type="cellIs" dxfId="4" priority="284" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="284" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M144">
-    <cfRule type="cellIs" dxfId="2" priority="286" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="286" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
